--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -77,12 +77,18 @@
       <b/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,9 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,16 +450,16 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
